--- a/doc/이클립스 spring boot mybatis setting.xlsx
+++ b/doc/이클립스 spring boot mybatis setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2554" windowWidth="13775" windowHeight="7920" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2554" windowWidth="13775" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이클립스" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="mysql timezone" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -2554,6 +2553,90 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATE TABLE `user` (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  `id` int(11) NOT NULL AUTO_INCREMENT,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  `user_name` varchar(30) DEFAULT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  `dt` datetime DEFAULT now(),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  PRIMARY KEY (`id`)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5480,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -5580,16 +5663,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B32"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/doc/이클립스 spring boot mybatis setting.xlsx
+++ b/doc/이클립스 spring boot mybatis setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2554" windowWidth="13775" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2554" windowWidth="13775" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="이클립스" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="log4jdbc" sheetId="6" r:id="rId6"/>
     <sheet name="classpath" sheetId="7" r:id="rId7"/>
     <sheet name="mysql timezone" sheetId="8" r:id="rId8"/>
+    <sheet name="데이타베이스 메타 조회" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -5258,6 +5259,170 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198408</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569343</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="888521" y="284672"/>
+          <a:ext cx="5891841" cy="2820837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!-- MyBatis XML Mapper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에서 데이터베이스 메타데이터 조회 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;select id="getDefaultColumnValue" resultType="string"&gt; SELECT COLUMN_DEFAULT FROM INFORMATION_SCHEMA.COLUMNS WHERE TABLE_SCHEMA = 'your_database_name' AND TABLE_NAME = 'your_table_name' AND COLUMN_NAME = 'your_column_name'; &lt;/select&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>258793</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>250430</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="948906" y="1423358"/>
+          <a:ext cx="4822430" cy="1949677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -5547,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -5563,7 +5728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -5675,4 +5840,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>